--- a/기본문제+심화문제(제출용)/18회차_실습체크리스트_이주영.xlsx
+++ b/기본문제+심화문제(제출용)/18회차_실습체크리스트_이주영.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\alone\기본문제+심화문제(제출용)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>11 라우트와 Axios 연동</t>
-  </si>
-  <si>
-    <t>12 Pinia 상태 관리</t>
   </si>
   <si>
     <r>
@@ -419,10 +416,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">git 주소 : </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -452,6 +445,14 @@
   </si>
   <si>
     <t>07 컴포넌트 심화</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 주소 : https://github.com/LeeJooYoung1999/KB-it-front_end-task.git</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Pinia 상태 관리</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +884,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +892,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,7 +900,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,7 +908,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,7 +928,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,7 +936,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,7 +944,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,7 +952,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4015,7 +4016,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4028,7 +4029,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5">
       <c r="A1" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -4038,7 +4039,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4048,13 +4049,13 @@
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="E3" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="22"/>
     </row>
@@ -4088,10 +4089,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4102,10 +4103,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4116,10 +4117,10 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4130,10 +4131,10 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4144,10 +4145,10 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4158,10 +4159,10 @@
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4174,30 +4175,30 @@
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="23"/>
       <c r="B12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4208,10 +4209,10 @@
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4222,10 +4223,10 @@
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4236,10 +4237,10 @@
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4250,10 +4251,10 @@
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4264,10 +4265,10 @@
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4278,52 +4279,52 @@
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="23"/>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="23"/>
       <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4334,10 +4335,10 @@
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4348,24 +4349,24 @@
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="23"/>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4378,7 +4379,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -4388,7 +4389,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -4398,7 +4399,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -4408,7 +4409,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>

--- a/기본문제+심화문제(제출용)/18회차_실습체크리스트_이주영.xlsx
+++ b/기본문제+심화문제(제출용)/18회차_실습체크리스트_이주영.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\alone\기본문제+심화문제(제출용)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smile\Documents\alone\기본문제+심화문제(제출용)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A73DB-7BE6-4DF5-961F-C810189CEDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -459,7 +451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -888,7 +880,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -896,7 +888,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -904,7 +896,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,15 +908,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,7 +924,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,7 +932,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,7 +964,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -980,7 +972,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,7 +980,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3598,7 +3590,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B73A9C-E2C5-F31B-C6D1-B54FF2EF9F79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3665,7 +3657,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45044E0-61DF-675F-0B87-F63E75BBBF83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4012,10 +4004,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
